--- a/09_Innvandrere og inkludering/Arbeid og inntekt/2023/Figur1_innvandringsgrunn_2022.xlsx
+++ b/09_Innvandrere og inkludering/Arbeid og inntekt/2023/Figur1_innvandringsgrunn_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/kjetil_gunnerud_kristoffersen_vtfk_no/Documents/Dokumenter/GitHub/Vestfold/Data/09_Innvandrere og inkludering/Arbeid og inntekt/2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vestfoldfylke-my.sharepoint.com/personal/kjetil_gunnerud_kristoffersen_vestfoldfylke_no/Documents/Dokumenter/GitHub2/Vestfold/09_Innvandrere og inkludering/Arbeid og inntekt/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{AB0D04E1-5A88-49F1-9ED6-A9D4172F1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B002EB7C-C276-4D4C-96A8-F0EA6C68FC85}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{AB0D04E1-5A88-49F1-9ED6-A9D4172F1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B934436C-571A-455C-AD99-29CD9A988C6D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{88F638D9-9E5C-448C-9E05-EB2EEC557233}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{88F638D9-9E5C-448C-9E05-EB2EEC557233}"/>
   </bookViews>
   <sheets>
     <sheet name="Sysselsatt_kommune_grunn" sheetId="7" r:id="rId1"/>
@@ -163,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,26 +462,26 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -527,7 +527,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -550,7 +550,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -573,7 +573,7 @@
         <v>77.900000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -596,7 +596,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -619,7 +619,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -642,7 +642,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -665,7 +665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
